--- a/Solutions/Metabasite.xlsx
+++ b/Solutions/Metabasite.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Thermolab\v_23_10_13\Solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Thermolab-main\v_24_03_18\Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD438859-458D-4A5A-B12F-908B434DD705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45547E9C-362C-4FA1-AFC9-0A7354F9F4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="12" xr2:uid="{A49E5DA2-E197-42C8-A9DC-E0DBAA94DA8C}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A49E5DA2-E197-42C8-A9DC-E0DBAA94DA8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Amphibole" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="177">
   <si>
     <t>Modeltype</t>
   </si>
@@ -574,6 +574,9 @@
   </si>
   <si>
     <t>usp</t>
+  </si>
+  <si>
+    <t>Sp)</t>
   </si>
 </sst>
 </file>
@@ -937,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89C5715-8989-484A-A444-9B08949E6D16}">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3571,7 +3574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA70AFB-945D-490B-B834-AC2D41D28234}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -3721,8 +3724,8 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11">
-        <v>1</v>
+      <c r="F11" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5099,7 +5102,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:K17" si="0">1/3</f>
+        <f t="shared" ref="C17:J17" si="0">1/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="D17">
@@ -6269,7 +6272,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8790,7 +8793,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9193,7 +9196,7 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>0.64700000000000002</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="C33">
         <v>0.55000000000000004</v>
